--- a/template_ispring.xlsx
+++ b/template_ispring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ite_excel_to_ispring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4995169-6242-4B62-9DC1-8C350525BA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379D9B93-CAF9-434C-BF65-3971BEBABB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2C38E54-02A5-4D0F-B8B0-5B427F9726AE}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Категория</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Тип вопроса</t>
   </si>
@@ -135,11 +132,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -455,71 +449,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87512400-997A-4B0F-A139-7E8F4987F459}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
